--- a/data/trans_bre/P6906-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6906-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P6906-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6906-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,72%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,07%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,06; 16,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,11; 13,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,52; 32,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,85; 22,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,49; 225,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,66; 84,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,13; 240,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,76; 450,41</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,11</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,54</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,6</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,36%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,58; 10,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,53; 16,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,7; 22,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 14,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,43; 49,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,52; 79,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,54; 148,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,83; 115,49</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,58</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,54</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,03%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,99%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,08%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,0%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,56; 5,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,74; 16,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,41; 10,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,05; 20,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,18; 22,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,52; 71,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,21; 34,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,57; 109,26</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,64</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,93</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,5%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,67; 5,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,87; 11,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,63; 16,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,56; 14,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,36; 29,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,05; 50,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,08; 80,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,56; 93,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6906-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6906-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>6,07</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>45,07%</t>
+          <t>52,73%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 22,32</t>
+          <t>-10,95; 23,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-64,76; 450,41</t>
+          <t>-57,93; 468,7</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,6</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>45,36%</t>
+          <t>29,35%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 14,93</t>
+          <t>-6,2; 13,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 115,49</t>
+          <t>-27,0; 98,26</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,54</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,0%</t>
+          <t>22,73%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 20,94</t>
+          <t>-11,16; 21,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-27,57; 109,26</t>
+          <t>-27,94; 108,14</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,93</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>42,5%</t>
+          <t>32,28%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,56; 14,02</t>
+          <t>-2,45; 12,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,56; 93,45</t>
+          <t>-9,65; 79,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6906-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6906-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 16,28</t>
+          <t>-10,07; 16,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,11; 13,97</t>
+          <t>-18,58; 15,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 32,92</t>
+          <t>-14,81; 30,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 23,24</t>
+          <t>-10,9; 23,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-65,49; 225,82</t>
+          <t>-70,87; 199,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-65,66; 84,91</t>
+          <t>-63,81; 105,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-54,13; 240,75</t>
+          <t>-61,22; 199,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-57,93; 468,7</t>
+          <t>-59,1; 566,86</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 10,18</t>
+          <t>-9,36; 9,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 16,96</t>
+          <t>-4,67; 16,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 22,69</t>
+          <t>2,46; 22,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 13,37</t>
+          <t>-4,92; 12,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,43; 49,52</t>
+          <t>-35,1; 42,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 79,46</t>
+          <t>-17,15; 75,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,54; 148,3</t>
+          <t>8,69; 141,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,0; 98,26</t>
+          <t>-21,4; 92,26</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-25,56; 5,18</t>
+          <t>-25,74; 4,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,74; 16,67</t>
+          <t>-21,5; 18,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-25,41; 10,89</t>
+          <t>-24,43; 10,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 21,22</t>
+          <t>-10,07; 20,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-64,18; 22,65</t>
+          <t>-65,23; 19,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-53,52; 71,79</t>
+          <t>-48,93; 77,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-48,21; 34,81</t>
+          <t>-48,38; 31,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-27,94; 108,14</t>
+          <t>-27,91; 112,63</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 5,98</t>
+          <t>-7,6; 5,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 11,42</t>
+          <t>-4,15; 12,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,63; 16,42</t>
+          <t>0,43; 16,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 12,78</t>
+          <t>-2,74; 12,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,36; 29,97</t>
+          <t>-29,87; 28,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 50,01</t>
+          <t>-14,1; 54,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 80,02</t>
+          <t>1,7; 78,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 79,63</t>
+          <t>-11,06; 80,48</t>
         </is>
       </c>
     </row>
